--- a/statistics/HistoricalDistanceData/historical_distance/Q60519452-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q60519452-en.xlsx
@@ -34,48 +34,48 @@
     <t>Democrats Win Native American Communities in Down-Ballot Bright Spot</t>
   </si>
   <si>
+    <t>Presidential Ratings</t>
+  </si>
+  <si>
+    <t>2020 Election Polls</t>
+  </si>
+  <si>
     <t>Kansas: Election Tools, Deadlines, Dates, Rules, and Links</t>
   </si>
   <si>
-    <t>2020 Election Polls</t>
+    <t>Find Your Local League</t>
+  </si>
+  <si>
+    <t>Joe Biden Wins Kansas Primary Conducted Exclusively By Mail</t>
+  </si>
+  <si>
+    <t>2020 President - Sabato's Crystal Ball</t>
+  </si>
+  <si>
+    <t>Biden dominates the electoral map, but here's how the race could tighten</t>
   </si>
   <si>
     <t>2020 Election Forecast</t>
   </si>
   <si>
-    <t>Find Your Local League</t>
-  </si>
-  <si>
-    <t>Presidential Ratings</t>
-  </si>
-  <si>
-    <t>2020 President - Sabato's Crystal Ball</t>
-  </si>
-  <si>
     <t>2020 Electoral Interactive Map</t>
   </si>
   <si>
-    <t>Joe Biden Wins Kansas Primary Conducted Exclusively By Mail</t>
-  </si>
-  <si>
-    <t>Biden dominates the electoral map, but here's how the race could tighten</t>
-  </si>
-  <si>
     <t>2020-11-09T16:49:49UTC</t>
   </si>
   <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
+    <t>2020-05-03T14:01:35UTC</t>
+  </si>
+  <si>
+    <t>2020-08-06T13:13:00UTC</t>
+  </si>
+  <si>
     <t>2020-08-12T06:30:00UTC</t>
   </si>
   <si>
-    <t>2020-05-03T14:01:35UTC</t>
-  </si>
-  <si>
-    <t>2020-08-06T13:13:00UTC</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
@@ -85,31 +85,31 @@
     <t>https://www.esquire.com/news-politics/politics/a34618833/democrats-win-native-american-communities-2020/</t>
   </si>
   <si>
+    <t>https://insideelections.com/ratings/president</t>
+  </si>
+  <si>
+    <t>https://www.ourprogress.org/polls</t>
+  </si>
+  <si>
     <t>https://www.vote.org/state/kansas/</t>
   </si>
   <si>
-    <t>https://www.ourprogress.org/polls</t>
+    <t>https://www.lwv.org/local-leagues/find-local-league</t>
+  </si>
+  <si>
+    <t>https://www.huffpost.com/entry/joe-biden-wins-kansas-primary_n_5eaecc11c5b69a7955193678</t>
+  </si>
+  <si>
+    <t>http://centerforpolitics.org/crystalball/2020-president/</t>
+  </si>
+  <si>
+    <t>https://www.nbcnews.com/politics/meet-the-press/biden-dominates-electoral-map-here-s-how-race-could-tighten-n1236001</t>
   </si>
   <si>
     <t>https://projects.fivethirtyeight.com/2020-election-forecast/</t>
   </si>
   <si>
-    <t>https://www.lwv.org/local-leagues/find-local-league</t>
-  </si>
-  <si>
-    <t>https://insideelections.com/ratings/president</t>
-  </si>
-  <si>
-    <t>http://centerforpolitics.org/crystalball/2020-president/</t>
-  </si>
-  <si>
     <t>https://abcnews.go.com/Politics/2020-Electoral-Interactive-Map?basemap=71662160&amp;promoref=brandpromo</t>
-  </si>
-  <si>
-    <t>https://www.huffpost.com/entry/joe-biden-wins-kansas-primary_n_5eaecc11c5b69a7955193678</t>
-  </si>
-  <si>
-    <t>https://www.nbcnews.com/politics/meet-the-press/biden-dominates-electoral-map-here-s-how-race-could-tighten-n1236001</t>
   </si>
 </sst>
 </file>
@@ -559,7 +559,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -593,7 +593,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -627,7 +627,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -644,7 +644,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -661,7 +661,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
